--- a/tests/fixtures/orderforms/1603.10.microbial.xlsx
+++ b/tests/fixtures/orderforms/1603.10.microbial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrikgrenfeldt/Documents/src/cg/tests/fixtures/orderforms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1279C3CF-1592-484B-A5C0-135D96AE974C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{91D43204-CD4F-0F45-9E1F-3D52B64E7347}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4900" yWindow="1500" windowWidth="30000" windowHeight="25180" tabRatio="593" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="500" windowWidth="36840" windowHeight="21100" tabRatio="593" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="6" r:id="rId1"/>
@@ -1708,9 +1708,6 @@
     <t>Fastq</t>
   </si>
   <si>
-    <t>Fastq + QC</t>
-  </si>
-  <si>
     <t>Data Delivery</t>
   </si>
   <si>
@@ -1792,6 +1789,9 @@
       </rPr>
       <t xml:space="preserve"> =  file package delivered from microSALT pipeline.</t>
     </r>
+  </si>
+  <si>
+    <t>Fastq QC</t>
   </si>
   <si>
     <t>sample1</t>
@@ -3830,7 +3830,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -3874,7 +3874,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -3899,7 +3899,7 @@
   <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD7"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3977,7 +3977,7 @@
     </row>
     <row r="17" spans="1:1" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="81" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="14" x14ac:dyDescent="0.15">
@@ -4030,7 +4030,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="41" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1" ht="47" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="67" t="s">
         <v>295</v>
       </c>
@@ -4047,7 +4047,7 @@
     </row>
     <row r="32" spans="1:1" ht="81" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="68" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -4223,7 +4223,7 @@
       <c r="A76" s="65"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="HuxjFUAZA8atpJVQoxE++8OdsEOAedvR2Idi8yKA1Lq49G5wNohAESmcqBEprYB6KB4Ztk4cYA9405D5j0ll5A==" saltValue="rNfO54FQVBfb6p6ZEhIfIg==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="uYfWgJUGZ/sU7XC9XggrIPlhKZ2EovAXvhI4Xjqkzz3oIWc/Mx4qZea3YN6mmChc/2Vbjv62E7/tY8uoIZq52Q==" saltValue="DjMWnFtZLWLvi+rJB8Pw4g==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <hyperlinks>
     <hyperlink ref="A14" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
@@ -4558,7 +4558,7 @@
         <v>76</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>15</v>
@@ -4648,7 +4648,7 @@
         <v>85</v>
       </c>
       <c r="D13" s="119" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E13" s="82" t="s">
         <v>94</v>
@@ -4738,7 +4738,7 @@
         <v>436</v>
       </c>
       <c r="D15" s="115" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="E15" s="126" t="s">
         <v>270</v>
@@ -4801,7 +4801,7 @@
         <v>439</v>
       </c>
       <c r="D16" s="115" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="E16" s="126" t="s">
         <v>75</v>
@@ -4852,7 +4852,7 @@
         <v>441</v>
       </c>
       <c r="D17" s="115" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="E17" s="126" t="s">
         <v>188</v>
@@ -4903,7 +4903,7 @@
         <v>443</v>
       </c>
       <c r="D18" s="115" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="E18" s="126" t="s">
         <v>296</v>
@@ -4954,7 +4954,7 @@
         <v>445</v>
       </c>
       <c r="D19" s="115" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="E19" s="126" t="s">
         <v>299</v>
@@ -5005,7 +5005,7 @@
         <v>447</v>
       </c>
       <c r="D20" s="115" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="E20" s="126" t="s">
         <v>300</v>
@@ -5056,7 +5056,7 @@
         <v>449</v>
       </c>
       <c r="D21" s="115" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="E21" s="126" t="s">
         <v>301</v>
@@ -5107,7 +5107,7 @@
         <v>451</v>
       </c>
       <c r="D22" s="115" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="E22" s="126" t="s">
         <v>413</v>
@@ -5158,7 +5158,7 @@
         <v>453</v>
       </c>
       <c r="D23" s="115" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="E23" s="126" t="s">
         <v>270</v>
@@ -5209,7 +5209,7 @@
         <v>455</v>
       </c>
       <c r="D24" s="115" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="E24" s="126" t="s">
         <v>270</v>
@@ -5260,7 +5260,7 @@
         <v>457</v>
       </c>
       <c r="D25" s="115" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="E25" s="126" t="s">
         <v>188</v>
@@ -5311,7 +5311,7 @@
         <v>459</v>
       </c>
       <c r="D26" s="115" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="E26" s="126" t="s">
         <v>296</v>
@@ -5362,7 +5362,7 @@
         <v>461</v>
       </c>
       <c r="D27" s="115" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="E27" s="126" t="s">
         <v>299</v>
@@ -5413,7 +5413,7 @@
         <v>463</v>
       </c>
       <c r="D28" s="115" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="E28" s="126" t="s">
         <v>300</v>
@@ -8774,7 +8774,7 @@
   <dimension ref="A1:N202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -8859,7 +8859,7 @@
         <v>276</v>
       </c>
       <c r="B3" s="72" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C3" s="72" t="s">
         <v>75</v>
@@ -10265,7 +10265,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="PyK4zGiruJH/ibs7DJiXg4P8cNdHbkHitn6/zg1B2rGCf3NMYnZrl8WehNWhbLLnM/TA15vp8FxVpt7HdZS9jw==" saltValue="+bqFdQMVzMJzCJ3SBNf2EA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="S5iNxQr+yRcM7V4qQo6tG8w5vk7DTcOOfV0XSmrMd5SbgTCKAKXwW+QTC6+X2g3Mp5bSW0GZvvBE/9OYUAxf0Q==" saltValue="k3+s3znK7JtKopMOfUEMYw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
